--- a/MeatProcessing.xlsx
+++ b/MeatProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B475DD2-7B34-407C-97DD-579944E3F686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFD653-FDBF-4E59-92D0-E4FA576D4B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18710" yWindow="2180" windowWidth="19470" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="4560" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Tyson</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +709,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>

--- a/MeatProcessing.xlsx
+++ b/MeatProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFD653-FDBF-4E59-92D0-E4FA576D4B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD897FC-C394-4BC1-BF0D-834D250EF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="4560" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="4580" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Smithfield</t>
+  </si>
+  <si>
+    <t>Mitsubishi - Indiana Pork, Food Ingredients</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +717,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
